--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\MAQUINA_VIRTUAL\evaluacion-final-juanrpo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EA3FA-D8BA-4791-8D9A-208E2E13CAEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B802DC-67B3-43D5-A9CD-96132E688CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" xr2:uid="{9A14BA95-5570-458E-8A19-7D142751076A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="43">
   <si>
     <t>01-hadoop-50</t>
   </si>
@@ -133,22 +133,28 @@
     <t>ok</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="B4:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -776,60 +782,1482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7771EF51-261C-4692-87E0-027ADB935FD8}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="C7">
-        <v>5</v>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>42</v>
+      </c>
+      <c r="B154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>38</v>
+      </c>
+      <c r="B160">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>36</v>
+      </c>
+      <c r="B178">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>37</v>
+      </c>
+      <c r="B179">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>38</v>
+      </c>
+      <c r="B180">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>42</v>
+      </c>
+      <c r="B183">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\MAQUINA_VIRTUAL\evaluacion-final-juanrpo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B802DC-67B3-43D5-A9CD-96132E688CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9277300-190D-4EC8-8ED6-846384B29559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" xr2:uid="{9A14BA95-5570-458E-8A19-7D142751076A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="43">
   <si>
     <t>01-hadoop-50</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="B4:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -655,6 +655,9 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\MAQUINA_VIRTUAL\evaluacion-final-juanrpo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9277300-190D-4EC8-8ED6-846384B29559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01F296-11CF-4FE1-B902-1CE12D1D0102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" xr2:uid="{9A14BA95-5570-458E-8A19-7D142751076A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="48">
   <si>
     <t>01-hadoop-50</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Ejercicios</t>
+  </si>
+  <si>
+    <t>Resultos</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>Falatantes</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
@@ -190,9 +205,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,273 +533,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472EDA6F-44DE-4B0D-8852-A480A2AF2127}">
-  <dimension ref="B4:H35"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNTA(D4:D34,G4:G34,J4:J34)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <f>+B2-B4</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIF(E4:E34,"OK")+COUNTIF(H4:H34,"OK")+COUNTIF(K4:K34,"OK")</f>
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f>+B4/B2</f>
+        <v>0.69811320754716977</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f>+B3/B2</f>
+        <v>0.30188679245283018</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <f>+A7*5</f>
+        <v>3.4905660377358489</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+      <c r="H30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\MAQUINA_VIRTUAL\evaluacion-final-juanrpo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01F296-11CF-4FE1-B902-1CE12D1D0102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C265AE1-B90E-44E7-B7D7-B95FABB7F7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" xr2:uid="{9A14BA95-5570-458E-8A19-7D142751076A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
   <si>
     <t>01-hadoop-50</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B2-B4</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="B4" s="1">
         <f>COUNTIF(E4:E34,"OK")+COUNTIF(H4:H34,"OK")+COUNTIF(K4:K34,"OK")</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -604,6 +604,9 @@
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -622,6 +625,9 @@
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -642,11 +648,14 @@
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f>+B4/B2</f>
-        <v>0.69811320754716977</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -667,7 +676,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>+B3/B2</f>
-        <v>0.30188679245283018</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -722,7 +731,7 @@
       </c>
       <c r="B11" s="3">
         <f>+A7*5</f>
-        <v>3.4905660377358489</v>
+        <v>3.9622641509433967</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -928,13 +937,19 @@
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G34" s="1" t="s">
         <v>33</v>
       </c>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\MAQUINA_VIRTUAL\evaluacion-final-juanrpo19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C265AE1-B90E-44E7-B7D7-B95FABB7F7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6353681-5F79-4E72-9473-723421323344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" xr2:uid="{9A14BA95-5570-458E-8A19-7D142751076A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="48">
   <si>
     <t>01-hadoop-50</t>
   </si>
@@ -535,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472EDA6F-44DE-4B0D-8852-A480A2AF2127}">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -561,7 +559,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B2-B4</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -588,7 +586,7 @@
       </c>
       <c r="B4" s="1">
         <f>COUNTIF(E4:E34,"OK")+COUNTIF(H4:H34,"OK")+COUNTIF(K4:K34,"OK")</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -655,7 +653,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f>+B4/B2</f>
-        <v>0.79245283018867929</v>
+        <v>0.98113207547169812</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -671,12 +669,15 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>+B3/B2</f>
-        <v>0.20754716981132076</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -692,6 +693,9 @@
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -710,6 +714,9 @@
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
@@ -724,6 +731,9 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -731,7 +741,7 @@
       </c>
       <c r="B11" s="3">
         <f>+A7*5</f>
-        <v>3.9622641509433967</v>
+        <v>4.9056603773584904</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -747,6 +757,9 @@
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -765,6 +778,9 @@
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
@@ -782,6 +798,9 @@
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
@@ -793,6 +812,9 @@
       <c r="J14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15" s="1" t="s">
@@ -804,6 +826,9 @@
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" s="1" t="s">
@@ -952,6 +977,9 @@
     <row r="34" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G34" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
